--- a/test_data/mae_raw_data.xlsx
+++ b/test_data/mae_raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamwi\Development\Projects\CharTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamwi\Development\Projects\exSTATic\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7072FEF-303C-4BC2-B785-B0103FBD52C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E0257-BE20-4713-A9A2-8603D40267A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19125" yWindow="0" windowWidth="32580" windowHeight="20985" xr2:uid="{8A83B4CF-6CEA-4B46-9E02-9017C05380C7}"/>
+    <workbookView xWindow="19230" yWindow="0" windowWidth="16185" windowHeight="20880" xr2:uid="{8A83B4CF-6CEA-4B46-9E02-9017C05380C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="185">
   <si>
     <t>Time</t>
   </si>
@@ -107,6 +107,489 @@
   </si>
   <si>
     <t>薄桜鬼 新選組奇譚</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1/31/2021</t>
+  </si>
+  <si>
+    <t>2/13/2021</t>
+  </si>
+  <si>
+    <t>2/14/2021</t>
+  </si>
+  <si>
+    <t>2/15/2021</t>
+  </si>
+  <si>
+    <t>2/26/2021</t>
+  </si>
+  <si>
+    <t>2/27/2021</t>
+  </si>
+  <si>
+    <t>2/28/2021</t>
+  </si>
+  <si>
+    <t>3/13/2021</t>
+  </si>
+  <si>
+    <t>3/14/2021</t>
+  </si>
+  <si>
+    <t>3/15/2021</t>
+  </si>
+  <si>
+    <t>3/16/2021</t>
+  </si>
+  <si>
+    <t>3/17/2021</t>
+  </si>
+  <si>
+    <t>3/18/2021</t>
+  </si>
+  <si>
+    <t>3/19/2021</t>
+  </si>
+  <si>
+    <t>3/20/2021</t>
+  </si>
+  <si>
+    <t>3/21/2021</t>
+  </si>
+  <si>
+    <t>3/22/2021</t>
+  </si>
+  <si>
+    <t>3/23/2021</t>
+  </si>
+  <si>
+    <t>3/24/2021</t>
+  </si>
+  <si>
+    <t>3/25/2021</t>
+  </si>
+  <si>
+    <t>3/26/2021</t>
+  </si>
+  <si>
+    <t>4/14/2021</t>
+  </si>
+  <si>
+    <t>4/15/2021</t>
+  </si>
+  <si>
+    <t>4/17/2021</t>
+  </si>
+  <si>
+    <t>4/18/2021</t>
+  </si>
+  <si>
+    <t>4/20/2021</t>
+  </si>
+  <si>
+    <t>4/22/2021</t>
+  </si>
+  <si>
+    <t>4/23/2021</t>
+  </si>
+  <si>
+    <t>5/13/2021</t>
+  </si>
+  <si>
+    <t>5/14/2021</t>
+  </si>
+  <si>
+    <t>5/16/2021</t>
+  </si>
+  <si>
+    <t>6/13/2021</t>
+  </si>
+  <si>
+    <t>6/18/2021</t>
+  </si>
+  <si>
+    <t>6/19/2021</t>
+  </si>
+  <si>
+    <t>6/29/2021</t>
+  </si>
+  <si>
+    <t>7/13/2021</t>
+  </si>
+  <si>
+    <t>7/14/2021</t>
+  </si>
+  <si>
+    <t>7/16/2021</t>
+  </si>
+  <si>
+    <t>7/17/2021</t>
+  </si>
+  <si>
+    <t>7/18/2021</t>
+  </si>
+  <si>
+    <t>8/27/2021</t>
+  </si>
+  <si>
+    <t>8/29/2021</t>
+  </si>
+  <si>
+    <t>8/30/2021</t>
+  </si>
+  <si>
+    <t>8/31/2021</t>
+  </si>
+  <si>
+    <t>9/13/2021</t>
+  </si>
+  <si>
+    <t>9/14/2021</t>
+  </si>
+  <si>
+    <t>9/15/2021</t>
+  </si>
+  <si>
+    <t>9/16/2021</t>
+  </si>
+  <si>
+    <t>9/17/2021</t>
+  </si>
+  <si>
+    <t>6/23/2021</t>
+  </si>
+  <si>
+    <t>6/24/2021</t>
+  </si>
+  <si>
+    <t>7/20/2021</t>
+  </si>
+  <si>
+    <t>8/13/2021</t>
+  </si>
+  <si>
+    <t>8/14/2021</t>
+  </si>
+  <si>
+    <t>8/15/2021</t>
+  </si>
+  <si>
+    <t>8/16/2021</t>
+  </si>
+  <si>
+    <t>8/17/2021</t>
+  </si>
+  <si>
+    <t>8/18/2021</t>
+  </si>
+  <si>
+    <t>8/19/2021</t>
+  </si>
+  <si>
+    <t>8/20/2021</t>
+  </si>
+  <si>
+    <t>8/21/2021</t>
+  </si>
+  <si>
+    <t>8/22/2021</t>
+  </si>
+  <si>
+    <t>9/21/2021</t>
+  </si>
+  <si>
+    <t>9/23/2021</t>
+  </si>
+  <si>
+    <t>9/24/2021</t>
+  </si>
+  <si>
+    <t>9/26/2021</t>
+  </si>
+  <si>
+    <t>9/27/2021</t>
+  </si>
+  <si>
+    <t>9/28/2021</t>
+  </si>
+  <si>
+    <t>9/29/2021</t>
+  </si>
+  <si>
+    <t>9/30/2021</t>
+  </si>
+  <si>
+    <t>10/15/2021</t>
+  </si>
+  <si>
+    <t>10/17/2021</t>
+  </si>
+  <si>
+    <t>10/18/2021</t>
+  </si>
+  <si>
+    <t>10/19/2021</t>
+  </si>
+  <si>
+    <t>10/20/2021</t>
+  </si>
+  <si>
+    <t>10/22/2021</t>
+  </si>
+  <si>
+    <t>10/23/2021</t>
+  </si>
+  <si>
+    <t>10/24/2021</t>
+  </si>
+  <si>
+    <t>10/25/2021</t>
+  </si>
+  <si>
+    <t>10/26/2021</t>
+  </si>
+  <si>
+    <t>10/27/2021</t>
+  </si>
+  <si>
+    <t>10/28/2021</t>
+  </si>
+  <si>
+    <t>10/29/2021</t>
+  </si>
+  <si>
+    <t>10/30/2021</t>
+  </si>
+  <si>
+    <t>10/31/2021</t>
+  </si>
+  <si>
+    <t>10/14/2021</t>
+  </si>
+  <si>
+    <t>11/13/2021</t>
+  </si>
+  <si>
+    <t>11/14/2021</t>
+  </si>
+  <si>
+    <t>11/15/2021</t>
+  </si>
+  <si>
+    <t>11/21/2021</t>
+  </si>
+  <si>
+    <t>11/22/2021</t>
+  </si>
+  <si>
+    <t>11/23/2021</t>
+  </si>
+  <si>
+    <t>11/24/2021</t>
+  </si>
+  <si>
+    <t>11/16/2021</t>
+  </si>
+  <si>
+    <t>11/17/2021</t>
+  </si>
+  <si>
+    <t>11/25/2021</t>
+  </si>
+  <si>
+    <t>11/26/2021</t>
+  </si>
+  <si>
+    <t>11/27/2021</t>
+  </si>
+  <si>
+    <t>7/22/2021</t>
+  </si>
+  <si>
+    <t>11/28/2021</t>
+  </si>
+  <si>
+    <t>11/29/2021</t>
+  </si>
+  <si>
+    <t>12/13/2021</t>
+  </si>
+  <si>
+    <t>12/14/2021</t>
+  </si>
+  <si>
+    <t>12/15/2021</t>
+  </si>
+  <si>
+    <t>12/16/2021</t>
+  </si>
+  <si>
+    <t>12/17/2021</t>
+  </si>
+  <si>
+    <t>12/18/2021</t>
+  </si>
+  <si>
+    <t>12/20/2021</t>
+  </si>
+  <si>
+    <t>12/21/2021</t>
+  </si>
+  <si>
+    <t>12/23/2021</t>
+  </si>
+  <si>
+    <t>12/25/2021</t>
+  </si>
+  <si>
+    <t>12/26/2021</t>
+  </si>
+  <si>
+    <t>12/27/2021</t>
+  </si>
+  <si>
+    <t>12/28/2021</t>
+  </si>
+  <si>
+    <t>12/29/2021</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>1/13/2022</t>
+  </si>
+  <si>
+    <t>1/23/2022</t>
+  </si>
+  <si>
+    <t>1/24/2022</t>
+  </si>
+  <si>
+    <t>1/26/2022</t>
+  </si>
+  <si>
+    <t>1/27/2022</t>
+  </si>
+  <si>
+    <t>1/14/2022</t>
+  </si>
+  <si>
+    <t>1/15/2022</t>
+  </si>
+  <si>
+    <t>1/16/2022</t>
+  </si>
+  <si>
+    <t>1/18/2022</t>
+  </si>
+  <si>
+    <t>1/19/2022</t>
+  </si>
+  <si>
+    <t>1/20/2022</t>
+  </si>
+  <si>
+    <t>1/21/2022</t>
+  </si>
+  <si>
+    <t>1/25/2022</t>
+  </si>
+  <si>
+    <t>2/16/2022</t>
+  </si>
+  <si>
+    <t>2/21/2022</t>
+  </si>
+  <si>
+    <t>2/22/2022</t>
+  </si>
+  <si>
+    <t>2/26/2022</t>
+  </si>
+  <si>
+    <t>2/27/2022</t>
+  </si>
+  <si>
+    <t>2/28/2022</t>
+  </si>
+  <si>
+    <t>2/24/2022</t>
+  </si>
+  <si>
+    <t>3/16/2022</t>
+  </si>
+  <si>
+    <t>3/18/2022</t>
+  </si>
+  <si>
+    <t>3/19/2022</t>
+  </si>
+  <si>
+    <t>3/21/2022</t>
+  </si>
+  <si>
+    <t>3/22/2022</t>
+  </si>
+  <si>
+    <t>3/24/2022</t>
+  </si>
+  <si>
+    <t>3/25/2022</t>
+  </si>
+  <si>
+    <t>3/26/2022</t>
+  </si>
+  <si>
+    <t>3/28/2022</t>
+  </si>
+  <si>
+    <t>3/29/2022</t>
+  </si>
+  <si>
+    <t>3/30/2022</t>
+  </si>
+  <si>
+    <t>3/31/2022</t>
+  </si>
+  <si>
+    <t>2/25/2022</t>
+  </si>
+  <si>
+    <t>3/13/2022</t>
+  </si>
+  <si>
+    <t>4/13/2022</t>
+  </si>
+  <si>
+    <t>4/15/2022</t>
+  </si>
+  <si>
+    <t>4/18/2022</t>
+  </si>
+  <si>
+    <t>5/17/2022</t>
+  </si>
+  <si>
+    <t>6/18/2022</t>
+  </si>
+  <si>
+    <t>6/13/2022</t>
+  </si>
+  <si>
+    <t>6/14/2022</t>
+  </si>
+  <si>
+    <t>6/15/2022</t>
+  </si>
+  <si>
+    <t>6/16/2022</t>
+  </si>
+  <si>
+    <t>サマーポケッツ</t>
   </si>
 </sst>
 </file>
@@ -183,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -195,6 +678,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DFD8BC-2942-4857-AD80-1C0BC8CC1E1F}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,4559 +1021,5403 @@
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
         <v>3.49</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>15163</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>526</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>4345</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
+        <v>44198</v>
+      </c>
+      <c r="C3" s="3">
         <v>4.58</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>16281</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>808</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>3555</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
+        <v>44229</v>
+      </c>
+      <c r="C4" s="4">
         <v>2.59</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>16664</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>799</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>6434</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
+        <v>44257</v>
+      </c>
+      <c r="C5" s="3">
         <v>2.97</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>18938</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>915</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>6376</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
+        <v>44288</v>
+      </c>
+      <c r="C6" s="3">
         <v>2.66</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>17020</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>797</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>6398</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C7" s="3">
         <v>3.3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>24894</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>1207</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>7544</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
+        <v>44349</v>
+      </c>
+      <c r="C8" s="4">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>19151</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>1001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7881</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C9" s="3">
         <v>1.85</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>13742</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>666</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7428</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.32</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>9759</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>460</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7393</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C11" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>14236</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>713</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>7013</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C12" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>16294</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>769</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6597</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
+        <v>44502</v>
+      </c>
+      <c r="C13" s="4">
         <v>2.02</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>10056</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>424</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>4978</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
+        <v>44532</v>
+      </c>
+      <c r="C14" s="4">
         <v>2.42</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>21195</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>749</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8758</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.75</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>4040</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>210</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5387</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.92</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>5753</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>278</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>6253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>15000</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>772</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
         <v>0.42</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>3230</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>184</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7690</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
         <v>2.17</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>11912</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>609</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>5489</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>4928</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>224</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4480</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
+        <v>44199</v>
+      </c>
+      <c r="C21" s="3">
         <v>1.25</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>4393</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>268</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3514</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
+        <v>44230</v>
+      </c>
+      <c r="C22" s="3">
         <v>3.39</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>18262</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>1038</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5387</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
+        <v>44258</v>
+      </c>
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>9774</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>517</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4887</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
+        <v>44289</v>
+      </c>
+      <c r="C24" s="3">
         <v>2.5</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>12325</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>627</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4930</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C25" s="3">
         <v>2.25</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>11777</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>615</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>5234</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
+        <v>44350</v>
+      </c>
+      <c r="C26" s="3">
         <v>1.5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>7384</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>382</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4923</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C27" s="3">
         <v>2.39</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>15135</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>745</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6333</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C28" s="3">
         <v>3.86</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>19970</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>958</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>5174</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
+        <v>44442</v>
+      </c>
+      <c r="C29" s="3">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>19008</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>1047</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>6336</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
+        <v>44472</v>
+      </c>
+      <c r="C30" s="3">
         <v>2.44</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>19923</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>970</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>8165</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
+        <v>44503</v>
+      </c>
+      <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>13588</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>745</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>6794</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
+        <v>44533</v>
+      </c>
+      <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>20818</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>1180</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6939</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
         <v>5.5</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>41457</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="3">
         <v>2237</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7538</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
         <v>4.37</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>39700</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>2209</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>9085</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>22689</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>1257</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7563</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3">
         <v>3.17</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>21101</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>1137</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>6656</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>32562</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>1684</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>7942</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3">
         <v>3.8</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>39129</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>2183</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>10297</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3">
         <v>1.2</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>8581</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>452</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>7151</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3">
         <v>3.79</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>41229</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="3">
         <v>2221</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>10878</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3">
         <v>3.1</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>40786</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>2168</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13157</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3">
         <v>2.83</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>41106</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>2418</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14525</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3">
         <v>2.87</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>31052</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>1758</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10820</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>26128</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>1285</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11360</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3">
         <v>2.5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>30019</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>1443</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12008</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3">
         <v>1.47</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>20172</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>1023</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13722</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="5">
+        <v>44320</v>
+      </c>
+      <c r="C47" s="3">
         <v>1.67</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>25014</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <v>1199</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14978</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="5">
+        <v>44351</v>
+      </c>
+      <c r="C48" s="3">
         <v>2.86</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>40287</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>1968</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14086</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="5">
+        <v>44473</v>
+      </c>
+      <c r="C49" s="3">
         <v>2.5</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>40045</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>2184</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16018</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="3">
         <v>2.62</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>41285</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>2221</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>15758</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3">
         <v>4.62</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>73990</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>3429</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>16015</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="4">
         <v>2.97</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="3">
         <v>21015</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7076</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="3">
         <v>3.83</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>30037</v>
       </c>
-      <c r="D53" s="3">
+      <c r="E53" s="3">
         <v>1899</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>7843</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="3">
         <v>1.97</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>20352</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>1095</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10331</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="3">
         <v>3.58</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>30029</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <v>2038</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>8388</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3">
         <v>2.72</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>20050</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E56" s="3">
         <v>1322</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>7371</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="5">
+        <v>44352</v>
+      </c>
+      <c r="C57" s="3">
         <v>2.94</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>24962</v>
       </c>
-      <c r="D57" s="3">
+      <c r="E57" s="3">
         <v>1371</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8490</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="5">
+        <v>44505</v>
+      </c>
+      <c r="C58" s="3">
         <v>3.89</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>41651</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10707</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <v>20040</v>
       </c>
-      <c r="D59" s="3">
+      <c r="E59" s="3">
         <v>1035</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8638</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="3">
         <v>3</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <v>26659</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <v>1418</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8886</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="3">
         <v>2.5</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>21120</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <v>1248</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8448</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="5">
+        <v>44445</v>
+      </c>
+      <c r="C62" s="3">
         <v>1.96</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <v>20034</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>974</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10221</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="5">
+        <v>44475</v>
+      </c>
+      <c r="C63" s="3">
         <v>2.02</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <v>22210</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3">
         <v>1563</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>10995</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="5">
+        <v>44536</v>
+      </c>
+      <c r="C64" s="3">
         <v>2.09</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <v>25405</v>
       </c>
-      <c r="D64" s="3">
+      <c r="E64" s="3">
         <v>1496</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="3">
         <v>12156</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="3">
         <v>3.29</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <v>35074</v>
       </c>
-      <c r="D65" s="3">
+      <c r="E65" s="3">
         <v>2243</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>10661</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="3">
         <v>2.17</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <v>21150</v>
       </c>
-      <c r="D66" s="3">
+      <c r="E66" s="3">
         <v>679</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9747</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="3">
         <v>2.38</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <v>20870</v>
       </c>
-      <c r="D67" s="3">
+      <c r="E67" s="3">
         <v>1053</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="3">
         <v>8769</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="3">
         <v>4.0199999999999996</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>45416</v>
       </c>
-      <c r="D68" s="3">
+      <c r="E68" s="3">
         <v>3061</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="3">
         <v>11298</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="5">
+        <v>44293</v>
+      </c>
+      <c r="C69" s="3">
         <v>1.75</v>
       </c>
-      <c r="C69" s="3">
+      <c r="D69" s="3">
         <v>20295</v>
       </c>
-      <c r="D69" s="3">
+      <c r="E69" s="3">
         <v>1216</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>11597</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="5">
+        <v>44323</v>
+      </c>
+      <c r="C70" s="3">
         <v>1.9</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <v>23673</v>
       </c>
-      <c r="D70" s="3">
+      <c r="E70" s="3">
         <v>1384</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>12459</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="5">
+        <v>44446</v>
+      </c>
+      <c r="C71" s="3">
         <v>2.75</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="3">
         <v>35186</v>
       </c>
-      <c r="D71" s="3">
+      <c r="E71" s="3">
         <v>2274</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="3">
         <v>12795</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="5">
+        <v>44537</v>
+      </c>
+      <c r="C72" s="3">
         <v>1.94</v>
       </c>
-      <c r="C72" s="3">
+      <c r="D72" s="3">
         <v>23435</v>
       </c>
-      <c r="D72" s="3">
+      <c r="E72" s="3">
         <v>1586</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12080</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="3">
         <v>2.72</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="3">
         <v>32780</v>
       </c>
-      <c r="D73" s="3">
+      <c r="E73" s="3">
         <v>2417</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>12051</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="3">
         <v>1.6</v>
       </c>
-      <c r="C74" s="3">
+      <c r="D74" s="3">
         <v>20023</v>
       </c>
-      <c r="D74" s="3">
+      <c r="E74" s="3">
         <v>1485</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>12514</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="3">
         <v>3.04</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="3">
         <v>36107</v>
       </c>
-      <c r="D75" s="3">
+      <c r="E75" s="3">
         <v>2061</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>11877</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="3">
         <v>4</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <v>46945</v>
       </c>
-      <c r="D76" s="3">
+      <c r="E76" s="3">
         <v>3680</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11736</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="3">
         <v>2</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <v>22530</v>
       </c>
-      <c r="D77" s="3">
+      <c r="E77" s="3">
         <v>1552</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>11265</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="4">
         <v>2</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="3">
         <v>15242</v>
       </c>
-      <c r="D78" s="3">
+      <c r="E78" s="3">
         <v>927</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>7621</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="3">
         <v>2</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="3">
         <v>20741</v>
       </c>
-      <c r="D79" s="3">
+      <c r="E79" s="3">
         <v>1339</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="3">
         <v>10371</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="3">
         <v>1.94</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="3">
         <v>20415</v>
       </c>
-      <c r="D80" s="3">
+      <c r="E80" s="3">
         <v>1344</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>10523</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="5">
+        <v>44235</v>
+      </c>
+      <c r="C81" s="3">
         <v>2.78</v>
       </c>
-      <c r="C81" s="3">
+      <c r="D81" s="3">
         <v>42297</v>
       </c>
-      <c r="D81" s="3">
+      <c r="E81" s="3">
         <v>2540</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15215</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="5">
+        <v>44263</v>
+      </c>
+      <c r="C82" s="3">
         <v>2</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="3">
         <v>27000</v>
       </c>
-      <c r="D82" s="3">
+      <c r="E82" s="3">
         <v>1713</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="5">
+        <v>44324</v>
+      </c>
+      <c r="C83" s="3">
         <v>4.59</v>
       </c>
-      <c r="C83" s="3">
+      <c r="D83" s="3">
         <v>56170</v>
       </c>
-      <c r="D83" s="3">
+      <c r="E83" s="3">
         <v>3666</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12237</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="5">
+        <v>44385</v>
+      </c>
+      <c r="C84" s="3">
         <v>2.63</v>
       </c>
-      <c r="C84" s="3">
+      <c r="D84" s="3">
         <v>35271</v>
       </c>
-      <c r="D84" s="3">
+      <c r="E84" s="3">
         <v>2019</v>
       </c>
-      <c r="E84" s="3">
+      <c r="F84" s="3">
         <v>13411</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C85" s="3">
         <v>2.5</v>
       </c>
-      <c r="C85" s="3">
+      <c r="D85" s="3">
         <v>35268</v>
       </c>
-      <c r="D85" s="3">
+      <c r="E85" s="3">
         <v>1947</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="3">
         <v>14107</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="5">
+        <v>44447</v>
+      </c>
+      <c r="C86" s="3">
         <v>3.42</v>
       </c>
-      <c r="C86" s="3">
+      <c r="D86" s="3">
         <v>51177</v>
       </c>
-      <c r="D86" s="3">
+      <c r="E86" s="3">
         <v>3013</v>
       </c>
-      <c r="E86" s="3">
+      <c r="F86" s="3">
         <v>14964</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="5">
+        <v>44477</v>
+      </c>
+      <c r="C87" s="3">
         <v>1.5</v>
       </c>
-      <c r="C87" s="3">
+      <c r="D87" s="3">
         <v>22396</v>
       </c>
-      <c r="D87" s="3">
+      <c r="E87" s="3">
         <v>1172</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="3">
         <v>14931</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="3">
         <v>2.75</v>
       </c>
-      <c r="C88" s="3">
+      <c r="D88" s="3">
         <v>40559</v>
       </c>
-      <c r="D88" s="3">
+      <c r="E88" s="3">
         <v>2441</v>
       </c>
-      <c r="E88" s="3">
+      <c r="F88" s="3">
         <v>14749</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="3">
         <v>2.75</v>
       </c>
-      <c r="C89" s="3">
+      <c r="D89" s="3">
         <v>40213</v>
       </c>
-      <c r="D89" s="3">
+      <c r="E89" s="3">
         <v>1917</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14623</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="3">
         <v>1.54</v>
       </c>
-      <c r="C90" s="3">
+      <c r="D90" s="3">
         <v>20588</v>
       </c>
-      <c r="D90" s="3">
+      <c r="E90" s="3">
         <v>1336</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="3">
         <v>13369</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="3">
         <v>2.5</v>
       </c>
-      <c r="C91" s="3">
+      <c r="D91" s="3">
         <v>36155</v>
       </c>
-      <c r="D91" s="3">
+      <c r="E91" s="3">
         <v>2348</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>14462</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="3">
         <v>1.5</v>
       </c>
-      <c r="C92" s="3">
+      <c r="D92" s="3">
         <v>20091</v>
       </c>
-      <c r="D92" s="3">
+      <c r="E92" s="3">
         <v>997</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="3">
         <v>13394</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="3">
         <v>3</v>
       </c>
-      <c r="C93" s="3">
+      <c r="D93" s="3">
         <v>40435</v>
       </c>
-      <c r="D93" s="3">
+      <c r="E93" s="3">
         <v>2257</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="3">
         <v>13478</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="3">
         <v>1.6</v>
       </c>
-      <c r="C94" s="3">
+      <c r="D94" s="3">
         <v>22070</v>
       </c>
-      <c r="D94" s="3">
+      <c r="E94" s="3">
         <v>725</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13794</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="3">
         <v>3.25</v>
       </c>
-      <c r="C95" s="3">
+      <c r="D95" s="3">
         <v>42265</v>
       </c>
-      <c r="D95" s="3">
+      <c r="E95" s="3">
         <v>2158</v>
       </c>
-      <c r="E95" s="3">
+      <c r="F95" s="3">
         <v>13005</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="3">
         <v>1.8</v>
       </c>
-      <c r="C96" s="3">
+      <c r="D96" s="3">
         <v>25008</v>
       </c>
-      <c r="D96" s="3">
+      <c r="E96" s="3">
         <v>1319</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>13893</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="3">
         <v>3.8</v>
       </c>
-      <c r="C97" s="3">
+      <c r="D97" s="3">
         <v>51688</v>
       </c>
-      <c r="D97" s="3">
+      <c r="E97" s="3">
         <v>2724</v>
       </c>
-      <c r="E97" s="3">
+      <c r="F97" s="3">
         <v>13602</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="4">
         <v>3.33</v>
       </c>
-      <c r="C98" s="4">
+      <c r="D98" s="4">
         <v>35097</v>
       </c>
-      <c r="D98" s="4">
+      <c r="E98" s="4">
         <v>1586</v>
       </c>
-      <c r="E98" s="4">
+      <c r="F98" s="4">
         <v>10540</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="4">
         <v>6.19</v>
       </c>
-      <c r="C99" s="4">
+      <c r="D99" s="4">
         <v>70617</v>
       </c>
-      <c r="D99" s="4">
+      <c r="E99" s="4">
         <v>3220</v>
       </c>
-      <c r="E99" s="4">
+      <c r="F99" s="4">
         <v>11408</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="4">
         <v>5.78</v>
       </c>
-      <c r="C100" s="4">
+      <c r="D100" s="4">
         <v>71832</v>
       </c>
-      <c r="D100" s="4">
+      <c r="E100" s="4">
         <v>3197</v>
       </c>
-      <c r="E100" s="4">
+      <c r="F100" s="4">
         <v>12428</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="4">
         <v>7.8</v>
       </c>
-      <c r="C101" s="4">
+      <c r="D101" s="4">
         <v>107991</v>
       </c>
-      <c r="D101" s="4">
+      <c r="E101" s="4">
         <v>4786</v>
       </c>
-      <c r="E101" s="4">
+      <c r="F101" s="4">
         <v>13845</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="6">
+        <v>44205</v>
+      </c>
+      <c r="C102" s="4">
         <v>5</v>
       </c>
-      <c r="C102" s="4">
+      <c r="D102" s="4">
         <v>70050</v>
       </c>
-      <c r="D102" s="4">
+      <c r="E102" s="4">
         <v>3068</v>
       </c>
-      <c r="E102" s="4">
+      <c r="F102" s="4">
         <v>14010</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="6">
+        <v>44295</v>
+      </c>
+      <c r="C103" s="4">
         <v>5.5</v>
       </c>
-      <c r="C103" s="4">
+      <c r="D103" s="4">
         <v>70128</v>
       </c>
-      <c r="D103" s="4">
+      <c r="E103" s="4">
         <v>3459</v>
       </c>
-      <c r="E103" s="4">
+      <c r="F103" s="4">
         <v>12751</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="6">
+        <v>44295</v>
+      </c>
+      <c r="C104" s="4">
         <v>2.6</v>
       </c>
-      <c r="C104" s="4">
+      <c r="D104" s="4">
         <v>35137</v>
       </c>
-      <c r="D104" s="4">
+      <c r="E104" s="4">
         <v>1427</v>
       </c>
-      <c r="E104" s="4">
+      <c r="F104" s="4">
         <v>13514</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="6">
+        <v>44325</v>
+      </c>
+      <c r="C105" s="4">
         <v>2.64</v>
       </c>
-      <c r="C105" s="4">
+      <c r="D105" s="4">
         <v>35234</v>
       </c>
-      <c r="D105" s="4">
+      <c r="E105" s="4">
         <v>1516</v>
       </c>
-      <c r="E105" s="4">
+      <c r="F105" s="4">
         <v>13346</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="6">
+        <v>44417</v>
+      </c>
+      <c r="C106" s="4">
         <v>4</v>
       </c>
-      <c r="C106" s="4">
+      <c r="D106" s="4">
         <v>52673</v>
       </c>
-      <c r="D106" s="4">
+      <c r="E106" s="4">
         <v>2304</v>
       </c>
-      <c r="E106" s="4">
+      <c r="F106" s="4">
         <v>13168</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="6">
+        <v>44448</v>
+      </c>
+      <c r="C107" s="4">
         <v>2.4700000000000002</v>
       </c>
-      <c r="C107" s="4">
+      <c r="D107" s="4">
         <v>36144</v>
       </c>
-      <c r="D107" s="4">
+      <c r="E107" s="4">
         <v>1655</v>
       </c>
-      <c r="E107" s="4">
+      <c r="F107" s="4">
         <v>14633</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="6">
+        <v>44478</v>
+      </c>
+      <c r="C108" s="4">
         <v>4.75</v>
       </c>
-      <c r="C108" s="4">
+      <c r="D108" s="4">
         <v>70028</v>
       </c>
-      <c r="D108" s="4">
+      <c r="E108" s="4">
         <v>3251</v>
       </c>
-      <c r="E108" s="4">
+      <c r="F108" s="4">
         <v>14743</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="6">
+        <v>44509</v>
+      </c>
+      <c r="C109" s="4">
         <v>5</v>
       </c>
-      <c r="C109" s="4">
+      <c r="D109" s="4">
         <v>79247</v>
       </c>
-      <c r="D109" s="4">
+      <c r="E109" s="4">
         <v>3305</v>
       </c>
-      <c r="E109" s="4">
+      <c r="F109" s="4">
         <v>15849</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="6">
+        <v>44539</v>
+      </c>
+      <c r="C110" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C110" s="4">
+      <c r="D110" s="4">
         <v>35019</v>
       </c>
-      <c r="D110" s="4">
+      <c r="E110" s="4">
         <v>432</v>
       </c>
-      <c r="E110" s="4">
+      <c r="F110" s="4">
         <v>15918</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C111" s="4">
+      <c r="D111" s="4">
         <v>70015</v>
       </c>
-      <c r="D111" s="4">
+      <c r="E111" s="4">
         <v>1813</v>
       </c>
-      <c r="E111" s="4">
+      <c r="F111" s="4">
         <v>15913</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="4">
         <v>3.19</v>
       </c>
-      <c r="C112" s="4">
+      <c r="D112" s="4">
         <v>50897</v>
       </c>
-      <c r="D112" s="4">
+      <c r="E112" s="4">
         <v>2686</v>
       </c>
-      <c r="E112" s="4">
+      <c r="F112" s="4">
         <v>15955</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="4">
         <v>2.5</v>
       </c>
-      <c r="C113" s="4">
+      <c r="D113" s="4">
         <v>35744</v>
       </c>
-      <c r="D113" s="4">
+      <c r="E113" s="4">
         <v>1554</v>
       </c>
-      <c r="E113" s="4">
+      <c r="F113" s="4">
         <v>14298</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="4">
         <v>6.12</v>
       </c>
-      <c r="C114" s="4">
+      <c r="D114" s="4">
         <v>100613</v>
       </c>
-      <c r="D114" s="4">
+      <c r="E114" s="4">
         <v>4133</v>
       </c>
-      <c r="E114" s="4">
+      <c r="F114" s="4">
         <v>16440</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" s="4">
         <v>1.45</v>
       </c>
-      <c r="C115" s="4">
+      <c r="D115" s="4">
         <v>19613</v>
       </c>
-      <c r="D115" s="4">
+      <c r="E115" s="4">
         <v>438</v>
       </c>
-      <c r="E115" s="4">
+      <c r="F115" s="4">
         <v>13526</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="6">
+        <v>44713</v>
+      </c>
+      <c r="C116" s="3">
         <v>3.7</v>
       </c>
-      <c r="C116" s="3">
+      <c r="D116" s="3">
         <v>59672</v>
       </c>
-      <c r="D116" s="3">
+      <c r="E116" s="3">
         <v>2647</v>
       </c>
-      <c r="E116" s="3">
+      <c r="F116" s="3">
         <v>16128</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="5">
+        <v>44743</v>
+      </c>
+      <c r="C117" s="3">
         <v>3.52</v>
       </c>
-      <c r="C117" s="3">
+      <c r="D117" s="3">
         <v>60563</v>
       </c>
-      <c r="D117" s="3">
+      <c r="E117" s="3">
         <v>2666</v>
       </c>
-      <c r="E117" s="3">
+      <c r="F117" s="3">
         <v>17205</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="5">
+        <v>44774</v>
+      </c>
+      <c r="C118" s="3">
         <v>3.83</v>
       </c>
-      <c r="C118" s="3">
+      <c r="D118" s="3">
         <v>57921</v>
       </c>
-      <c r="D118" s="3">
+      <c r="E118" s="3">
         <v>2578</v>
       </c>
-      <c r="E118" s="3">
+      <c r="F118" s="3">
         <v>15123</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="4">
         <v>2</v>
       </c>
-      <c r="C119" s="3">
+      <c r="D119" s="3">
         <v>37531</v>
       </c>
-      <c r="D119" s="3">
+      <c r="E119" s="3">
         <v>2041</v>
       </c>
-      <c r="E119" s="3">
+      <c r="F119" s="3">
         <v>18766</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="3">
         <v>2.16</v>
       </c>
-      <c r="C120" s="3">
+      <c r="D120" s="3">
         <v>41721</v>
       </c>
-      <c r="D120" s="3">
+      <c r="E120" s="3">
         <v>2174</v>
       </c>
-      <c r="E120" s="3">
+      <c r="F120" s="3">
         <v>19315</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="3">
         <v>2.27</v>
       </c>
-      <c r="C121" s="3">
+      <c r="D121" s="3">
         <v>42158</v>
       </c>
-      <c r="D121" s="3">
+      <c r="E121" s="3">
         <v>2294</v>
       </c>
-      <c r="E121" s="3">
+      <c r="F121" s="3">
         <v>18572</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" s="3">
         <v>2</v>
       </c>
-      <c r="C122" s="3">
+      <c r="D122" s="3">
         <v>36902</v>
       </c>
-      <c r="D122" s="3">
+      <c r="E122" s="3">
         <v>1945</v>
       </c>
-      <c r="E122" s="3">
+      <c r="F122" s="3">
         <v>18451</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="C123" s="3">
+      <c r="D123" s="3">
         <v>45485</v>
       </c>
-      <c r="D123" s="3">
+      <c r="E123" s="3">
         <v>2352</v>
       </c>
-      <c r="E123" s="3">
+      <c r="F123" s="3">
         <v>20489</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C124" s="3">
+      <c r="D124" s="3">
         <v>46883</v>
       </c>
-      <c r="D124" s="3">
+      <c r="E124" s="3">
         <v>2355</v>
       </c>
-      <c r="E124" s="3">
+      <c r="F124" s="3">
         <v>20930</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="3">
         <v>3.12</v>
       </c>
-      <c r="C125" s="3">
+      <c r="D125" s="3">
         <v>63073</v>
       </c>
-      <c r="D125" s="3">
+      <c r="E125" s="3">
         <v>3209</v>
       </c>
-      <c r="E125" s="3">
+      <c r="F125" s="3">
         <v>20216</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126" s="3">
         <v>3.44</v>
       </c>
-      <c r="C126" s="3">
+      <c r="D126" s="3">
         <v>76301</v>
       </c>
-      <c r="D126" s="3">
+      <c r="E126" s="3">
         <v>3784</v>
       </c>
-      <c r="E126" s="3">
+      <c r="F126" s="3">
         <v>22181</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="5">
+        <v>44206</v>
+      </c>
+      <c r="C127" s="3">
         <v>5.5</v>
       </c>
-      <c r="C127" s="3">
+      <c r="D127" s="3">
         <v>111832</v>
       </c>
-      <c r="D127" s="3">
+      <c r="E127" s="3">
         <v>5627</v>
       </c>
-      <c r="E127" s="3">
+      <c r="F127" s="3">
         <v>20333</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="5">
+        <v>44237</v>
+      </c>
+      <c r="C128" s="3">
         <v>3.64</v>
       </c>
-      <c r="C128" s="3">
+      <c r="D128" s="3">
         <v>73248</v>
       </c>
-      <c r="D128" s="3">
+      <c r="E128" s="3">
         <v>3870</v>
       </c>
-      <c r="E128" s="3">
+      <c r="F128" s="3">
         <v>20123</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="5">
+        <v>44265</v>
+      </c>
+      <c r="C129" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C129" s="3">
+      <c r="D129" s="3">
         <v>23369</v>
       </c>
-      <c r="D129" s="3">
+      <c r="E129" s="3">
         <v>1151</v>
       </c>
-      <c r="E129" s="3">
+      <c r="F129" s="3">
         <v>21053</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="6">
+        <v>44265</v>
+      </c>
+      <c r="C130" s="4">
         <v>2.17</v>
       </c>
-      <c r="C130" s="4">
+      <c r="D130" s="4">
         <v>35014</v>
       </c>
-      <c r="D130" s="4">
+      <c r="E130" s="4">
         <v>1324</v>
       </c>
-      <c r="E130" s="4">
+      <c r="F130" s="4">
         <v>16135</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="6">
+        <v>44296</v>
+      </c>
+      <c r="C131" s="4">
         <v>2</v>
       </c>
-      <c r="C131" s="4">
+      <c r="D131" s="4">
         <v>35105</v>
       </c>
-      <c r="D131" s="4">
+      <c r="E131" s="4">
         <v>1475</v>
       </c>
-      <c r="E131" s="4">
+      <c r="F131" s="4">
         <v>17553</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="4">
         <v>2.62</v>
       </c>
-      <c r="C132" s="4">
+      <c r="D132" s="4">
         <v>45178</v>
       </c>
-      <c r="D132" s="4">
+      <c r="E132" s="4">
         <v>1958</v>
       </c>
-      <c r="E132" s="4">
+      <c r="F132" s="4">
         <v>17244</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="4">
         <v>2.54</v>
       </c>
-      <c r="C133" s="4">
+      <c r="D133" s="4">
         <v>45107</v>
       </c>
-      <c r="D133" s="4">
+      <c r="E133" s="4">
         <v>1883</v>
       </c>
-      <c r="E133" s="4">
+      <c r="F133" s="4">
         <v>17759</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>11</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="4">
         <v>2.59</v>
       </c>
-      <c r="C134" s="4">
+      <c r="D134" s="4">
         <v>45488</v>
       </c>
-      <c r="D134" s="4">
+      <c r="E134" s="4">
         <v>1967</v>
       </c>
-      <c r="E134" s="4">
+      <c r="F134" s="4">
         <v>17563</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="4">
         <v>2.67</v>
       </c>
-      <c r="C135" s="4">
+      <c r="D135" s="4">
         <v>47349</v>
       </c>
-      <c r="D135" s="4">
+      <c r="E135" s="4">
         <v>2359</v>
       </c>
-      <c r="E135" s="4">
+      <c r="F135" s="4">
         <v>17734</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" s="4">
         <v>3.13</v>
       </c>
-      <c r="C136" s="4">
+      <c r="D136" s="4">
         <v>53740</v>
       </c>
-      <c r="D136" s="4">
+      <c r="E136" s="4">
         <v>2269</v>
       </c>
-      <c r="E136" s="4">
+      <c r="F136" s="4">
         <v>17169</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137" s="4">
         <v>2.5</v>
       </c>
-      <c r="C137" s="4">
+      <c r="D137" s="4">
         <v>45196</v>
       </c>
-      <c r="D137" s="4">
+      <c r="E137" s="4">
         <v>1994</v>
       </c>
-      <c r="E137" s="4">
+      <c r="F137" s="4">
         <v>18078</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138" s="4">
         <v>2.93</v>
       </c>
-      <c r="C138" s="4">
+      <c r="D138" s="4">
         <v>48617</v>
       </c>
-      <c r="D138" s="4">
+      <c r="E138" s="4">
         <v>2051</v>
       </c>
-      <c r="E138" s="4">
+      <c r="F138" s="4">
         <v>16593</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" s="4">
         <v>4.21</v>
       </c>
-      <c r="C139" s="4">
+      <c r="D139" s="4">
         <v>70071</v>
       </c>
-      <c r="D139" s="4">
+      <c r="E139" s="4">
         <v>3044</v>
       </c>
-      <c r="E139" s="4">
+      <c r="F139" s="4">
         <v>16644</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" s="4">
         <v>4.58</v>
       </c>
-      <c r="C140" s="4">
+      <c r="D140" s="4">
         <v>74357</v>
       </c>
-      <c r="D140" s="4">
+      <c r="E140" s="4">
         <v>3352</v>
       </c>
-      <c r="E140" s="4">
+      <c r="F140" s="4">
         <v>16235</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C141" s="4">
         <v>3.83</v>
       </c>
-      <c r="C141" s="4">
+      <c r="D141" s="4">
         <v>70060</v>
       </c>
-      <c r="D141" s="4">
+      <c r="E141" s="4">
         <v>3333</v>
       </c>
-      <c r="E141" s="4">
+      <c r="F141" s="4">
         <v>18292</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C142" s="4">
         <v>3.84</v>
       </c>
-      <c r="C142" s="4">
+      <c r="D142" s="4">
         <v>71071</v>
       </c>
-      <c r="D142" s="4">
+      <c r="E142" s="4">
         <v>3693</v>
       </c>
-      <c r="E142" s="4">
+      <c r="F142" s="4">
         <v>18508</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C143" s="4">
         <v>4</v>
       </c>
-      <c r="C143" s="4">
+      <c r="D143" s="4">
         <v>73245</v>
       </c>
-      <c r="D143" s="4">
+      <c r="E143" s="4">
         <v>3231</v>
       </c>
-      <c r="E143" s="4">
+      <c r="F143" s="4">
         <v>18311</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C144" s="4">
         <v>2.5</v>
       </c>
-      <c r="C144" s="4">
+      <c r="D144" s="4">
         <v>46479</v>
       </c>
-      <c r="D144" s="4">
+      <c r="E144" s="4">
         <v>2124</v>
       </c>
-      <c r="E144" s="4">
+      <c r="F144" s="4">
         <v>18592</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C145" s="4">
         <v>5.6</v>
       </c>
-      <c r="C145" s="4">
+      <c r="D145" s="4">
         <v>107218</v>
       </c>
-      <c r="D145" s="4">
+      <c r="E145" s="4">
         <v>5429</v>
       </c>
-      <c r="E145" s="4">
+      <c r="F145" s="4">
         <v>19146</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C146" s="4">
         <v>2.4</v>
       </c>
-      <c r="C146" s="4">
+      <c r="D146" s="4">
         <v>47902</v>
       </c>
-      <c r="D146" s="4">
+      <c r="E146" s="4">
         <v>2465</v>
       </c>
-      <c r="E146" s="4">
+      <c r="F146" s="4">
         <v>19959</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>12</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="6">
+        <v>44357</v>
+      </c>
+      <c r="C147" s="4">
         <v>1.86</v>
       </c>
-      <c r="C147" s="3">
+      <c r="D147" s="3">
         <v>36976</v>
       </c>
-      <c r="D147" s="3">
+      <c r="E147" s="3">
         <v>2170</v>
       </c>
-      <c r="E147" s="3">
+      <c r="F147" s="3">
         <v>19880</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>12</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="3">
         <v>1.8</v>
       </c>
-      <c r="C148" s="3">
+      <c r="D148" s="3">
         <v>35049</v>
       </c>
-      <c r="D148" s="3">
+      <c r="E148" s="3">
         <v>1871</v>
       </c>
-      <c r="E148" s="3">
+      <c r="F148" s="3">
         <v>19472</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="5">
+        <v>44511</v>
+      </c>
+      <c r="C149" s="3">
         <v>2.83</v>
       </c>
-      <c r="C149" s="3">
+      <c r="D149" s="3">
         <v>54713</v>
       </c>
-      <c r="D149" s="3">
+      <c r="E149" s="3">
         <v>2650</v>
       </c>
-      <c r="E149" s="3">
+      <c r="F149" s="3">
         <v>19333</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="5">
+        <v>44541</v>
+      </c>
+      <c r="C150" s="3">
         <v>2.27</v>
       </c>
-      <c r="C150" s="3">
+      <c r="D150" s="3">
         <v>42071</v>
       </c>
-      <c r="D150" s="3">
+      <c r="E150" s="3">
         <v>2137</v>
       </c>
-      <c r="E150" s="3">
+      <c r="F150" s="3">
         <v>18533</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>12</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="3">
         <v>4</v>
       </c>
-      <c r="C151" s="3">
+      <c r="D151" s="3">
         <v>73135</v>
       </c>
-      <c r="D151" s="3">
+      <c r="E151" s="3">
         <v>3569</v>
       </c>
-      <c r="E151" s="3">
+      <c r="F151" s="3">
         <v>18284</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>12</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C152" s="3">
         <v>4</v>
       </c>
-      <c r="C152" s="3">
+      <c r="D152" s="3">
         <v>72632</v>
       </c>
-      <c r="D152" s="3">
+      <c r="E152" s="3">
         <v>3867</v>
       </c>
-      <c r="E152" s="3">
+      <c r="F152" s="3">
         <v>18158</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>12</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C153" s="3">
         <v>1.83</v>
       </c>
-      <c r="C153" s="3">
+      <c r="D153" s="3">
         <v>35079</v>
       </c>
-      <c r="D153" s="3">
+      <c r="E153" s="3">
         <v>1853</v>
       </c>
-      <c r="E153" s="3">
+      <c r="F153" s="3">
         <v>19169</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>12</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C154" s="3">
         <v>2.54</v>
       </c>
-      <c r="C154" s="3">
+      <c r="D154" s="3">
         <v>49308</v>
       </c>
-      <c r="D154" s="3">
+      <c r="E154" s="3">
         <v>2649</v>
       </c>
-      <c r="E154" s="3">
+      <c r="F154" s="3">
         <v>19413</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" s="3">
         <v>2.59</v>
       </c>
-      <c r="C155" s="3">
+      <c r="D155" s="3">
         <v>50012</v>
       </c>
-      <c r="D155" s="3">
+      <c r="E155" s="3">
         <v>2787</v>
       </c>
-      <c r="E155" s="3">
+      <c r="F155" s="3">
         <v>19310</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>12</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="3">
         <v>1.92</v>
       </c>
-      <c r="C156" s="3">
+      <c r="D156" s="3">
         <v>35176</v>
       </c>
-      <c r="D156" s="3">
+      <c r="E156" s="3">
         <v>1871</v>
       </c>
-      <c r="E156" s="3">
+      <c r="F156" s="3">
         <v>18321</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>12</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="3">
         <v>3.19</v>
       </c>
-      <c r="C157" s="3">
+      <c r="D157" s="3">
         <v>61154</v>
       </c>
-      <c r="D157" s="3">
+      <c r="E157" s="3">
         <v>3589</v>
       </c>
-      <c r="E157" s="3">
+      <c r="F157" s="3">
         <v>19171</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>13</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="6">
+        <v>44266</v>
+      </c>
+      <c r="C158" s="4">
         <v>3.39</v>
       </c>
-      <c r="C158" s="3">
+      <c r="D158" s="3">
         <v>48432</v>
       </c>
-      <c r="D158" s="3">
+      <c r="E158" s="3">
         <v>2409</v>
       </c>
-      <c r="E158" s="3">
+      <c r="F158" s="3">
         <v>14287</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>13</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="6">
+        <v>44297</v>
+      </c>
+      <c r="C159" s="3">
         <v>3.3</v>
       </c>
-      <c r="C159" s="3">
+      <c r="D159" s="3">
         <v>48477</v>
       </c>
-      <c r="D159" s="3">
+      <c r="E159" s="3">
         <v>2343</v>
       </c>
-      <c r="E159" s="3">
+      <c r="F159" s="3">
         <v>14690</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="5">
+        <v>44358</v>
+      </c>
+      <c r="C160" s="3">
         <v>2.25</v>
       </c>
-      <c r="C160" s="3">
+      <c r="D160" s="3">
         <v>35009</v>
       </c>
-      <c r="D160" s="3">
+      <c r="E160" s="3">
         <v>1710</v>
       </c>
-      <c r="E160" s="3">
+      <c r="F160" s="3">
         <v>15560</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>13</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C161" s="3">
         <v>2.35</v>
       </c>
-      <c r="C161" s="3">
+      <c r="D161" s="3">
         <v>36925</v>
       </c>
-      <c r="D161" s="3">
+      <c r="E161" s="3">
         <v>1942</v>
       </c>
-      <c r="E161" s="3">
+      <c r="F161" s="3">
         <v>15713</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="5">
+        <v>44480</v>
+      </c>
+      <c r="C162" s="3">
         <v>2.25</v>
       </c>
-      <c r="C162" s="3">
+      <c r="D162" s="3">
         <v>35210</v>
       </c>
-      <c r="D162" s="3">
+      <c r="E162" s="3">
         <v>1615</v>
       </c>
-      <c r="E162" s="3">
+      <c r="F162" s="3">
         <v>15649</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" s="3">
         <v>2.1</v>
       </c>
-      <c r="C163" s="3">
+      <c r="D163" s="3">
         <v>35434</v>
       </c>
-      <c r="D163" s="3">
+      <c r="E163" s="3">
         <v>1818</v>
       </c>
-      <c r="E163" s="3">
+      <c r="F163" s="3">
         <v>16873</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="C164" s="3">
+      <c r="D164" s="3">
         <v>35320</v>
       </c>
-      <c r="D164" s="3">
+      <c r="E164" s="3">
         <v>1690</v>
       </c>
-      <c r="E164" s="3">
+      <c r="F164" s="3">
         <v>17063</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>13</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C165" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="C165" s="3">
+      <c r="D165" s="3">
         <v>35010</v>
       </c>
-      <c r="D165" s="3">
+      <c r="E165" s="3">
         <v>1736</v>
       </c>
-      <c r="E165" s="3">
+      <c r="F165" s="3">
         <v>17078</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>13</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="3">
         <v>3.19</v>
       </c>
-      <c r="C166" s="3">
+      <c r="D166" s="3">
         <v>55022</v>
       </c>
-      <c r="D166" s="3">
+      <c r="E166" s="3">
         <v>2900</v>
       </c>
-      <c r="E166" s="3">
+      <c r="F166" s="3">
         <v>17248</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" s="3">
         <v>2.9</v>
       </c>
-      <c r="C167" s="3">
+      <c r="D167" s="3">
         <v>50026</v>
       </c>
-      <c r="D167" s="3">
+      <c r="E167" s="3">
         <v>2864</v>
       </c>
-      <c r="E167" s="3">
+      <c r="F167" s="3">
         <v>17250</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>13</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C168" s="3">
         <v>1.76</v>
       </c>
-      <c r="C168" s="3">
+      <c r="D168" s="3">
         <v>29757</v>
       </c>
-      <c r="D168" s="3">
+      <c r="E168" s="3">
         <v>1886</v>
       </c>
-      <c r="E168" s="3">
+      <c r="F168" s="3">
         <v>16907</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>14</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="7">
+        <v>44203</v>
+      </c>
+      <c r="C169" s="4">
         <v>2</v>
       </c>
-      <c r="C169" s="3">
+      <c r="D169" s="3">
         <v>20486</v>
       </c>
-      <c r="D169" s="3">
+      <c r="E169" s="3">
         <v>1204</v>
       </c>
-      <c r="E169" s="3">
+      <c r="F169" s="3">
         <v>10243</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="7">
+        <v>44234</v>
+      </c>
+      <c r="C170" s="3">
         <v>3.11</v>
       </c>
-      <c r="C170" s="3">
+      <c r="D170" s="3">
         <v>35133</v>
       </c>
-      <c r="D170" s="3">
+      <c r="E170" s="3">
         <v>2175</v>
       </c>
-      <c r="E170" s="3">
+      <c r="F170" s="3">
         <v>11297</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>14</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="7">
+        <v>44262</v>
+      </c>
+      <c r="C171" s="3">
         <v>2</v>
       </c>
-      <c r="C171" s="3">
+      <c r="D171" s="3">
         <v>22734</v>
       </c>
-      <c r="D171" s="3">
+      <c r="E171" s="3">
         <v>1321</v>
       </c>
-      <c r="E171" s="3">
+      <c r="F171" s="3">
         <v>11367</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="7">
+        <v>44446</v>
+      </c>
+      <c r="C172" s="3">
         <v>2.5</v>
       </c>
-      <c r="C172" s="3">
+      <c r="D172" s="3">
         <v>30002</v>
       </c>
-      <c r="D172" s="3">
+      <c r="E172" s="3">
         <v>1814</v>
       </c>
-      <c r="E172" s="3">
+      <c r="F172" s="3">
         <v>12001</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C173" s="3">
         <v>0.88</v>
       </c>
-      <c r="C173" s="3">
+      <c r="D173" s="3">
         <v>12010</v>
       </c>
-      <c r="D173" s="3">
+      <c r="E173" s="3">
         <v>752</v>
       </c>
-      <c r="E173" s="3">
+      <c r="F173" s="3">
         <v>13648</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C174" s="3">
         <v>4</v>
       </c>
-      <c r="C174" s="3">
+      <c r="D174" s="3">
         <v>58679</v>
       </c>
-      <c r="D174" s="3">
+      <c r="E174" s="3">
         <v>3327</v>
       </c>
-      <c r="E174" s="3">
+      <c r="F174" s="3">
         <v>14670</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C175" s="3">
         <v>3.05</v>
       </c>
-      <c r="C175" s="3">
+      <c r="D175" s="3">
         <v>45124</v>
       </c>
-      <c r="D175" s="3">
+      <c r="E175" s="3">
         <v>2758</v>
       </c>
-      <c r="E175" s="3">
+      <c r="F175" s="3">
         <v>14795</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="5">
+        <v>44208</v>
+      </c>
+      <c r="C176" s="3">
         <v>3.33</v>
       </c>
-      <c r="C176" s="3">
+      <c r="D176" s="3">
         <v>50024</v>
       </c>
-      <c r="D176" s="3">
+      <c r="E176" s="3">
         <v>3197</v>
       </c>
-      <c r="E176" s="3">
+      <c r="F176" s="3">
         <v>15022</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>14</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="5">
+        <v>44328</v>
+      </c>
+      <c r="C177" s="3">
         <v>2.14</v>
       </c>
-      <c r="C177" s="3">
+      <c r="D177" s="3">
         <v>35409</v>
       </c>
-      <c r="D177" s="3">
+      <c r="E177" s="3">
         <v>2205</v>
       </c>
-      <c r="E177" s="3">
+      <c r="F177" s="3">
         <v>16546</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>14</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="5">
+        <v>44359</v>
+      </c>
+      <c r="C178" s="3">
         <v>3.6</v>
       </c>
-      <c r="C178" s="3">
+      <c r="D178" s="3">
         <v>60086</v>
       </c>
-      <c r="D178" s="3">
+      <c r="E178" s="3">
         <v>3580</v>
       </c>
-      <c r="E178" s="3">
+      <c r="F178" s="3">
         <v>16691</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>14</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="5">
+        <v>44389</v>
+      </c>
+      <c r="C179" s="3">
         <v>3.1</v>
       </c>
-      <c r="C179" s="3">
+      <c r="D179" s="3">
         <v>51442</v>
       </c>
-      <c r="D179" s="3">
+      <c r="E179" s="3">
         <v>1632</v>
       </c>
-      <c r="E179" s="3">
+      <c r="F179" s="3">
         <v>16594</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>14</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="5">
+        <v>44451</v>
+      </c>
+      <c r="C180" s="3">
         <v>2.4</v>
       </c>
-      <c r="C180" s="3">
+      <c r="D180" s="3">
         <v>38988</v>
       </c>
-      <c r="D180" s="3">
+      <c r="E180" s="3">
         <v>2540</v>
       </c>
-      <c r="E180" s="3">
+      <c r="F180" s="3">
         <v>16245</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>14</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="5">
+        <v>44512</v>
+      </c>
+      <c r="C181" s="3">
         <v>2.12</v>
       </c>
-      <c r="C181" s="3">
+      <c r="D181" s="3">
         <v>35607</v>
       </c>
-      <c r="D181" s="3">
+      <c r="E181" s="3">
         <v>1873</v>
       </c>
-      <c r="E181" s="3">
+      <c r="F181" s="3">
         <v>16796</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>14</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="5">
+        <v>44542</v>
+      </c>
+      <c r="C182" s="3">
         <v>2</v>
       </c>
-      <c r="C182" s="3">
+      <c r="D182" s="3">
         <v>32605</v>
       </c>
-      <c r="D182" s="3">
+      <c r="E182" s="3">
         <v>1188</v>
       </c>
-      <c r="E182" s="3">
+      <c r="F182" s="3">
         <v>16303</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>15</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="6">
+        <v>44239</v>
+      </c>
+      <c r="C183" s="4">
         <v>2.21</v>
       </c>
-      <c r="C183" s="3">
+      <c r="D183" s="3">
         <v>21265</v>
       </c>
-      <c r="D183" s="3">
+      <c r="E183" s="3">
         <v>1119</v>
       </c>
-      <c r="E183" s="3">
+      <c r="F183" s="3">
         <v>9622</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>15</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C184" s="3">
         <v>4.08</v>
       </c>
-      <c r="C184" s="3">
+      <c r="D184" s="3">
         <v>47304</v>
       </c>
-      <c r="D184" s="3">
+      <c r="E184" s="3">
         <v>3554</v>
       </c>
-      <c r="E184" s="3">
+      <c r="F184" s="3">
         <v>11594</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>15</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C185" s="3">
         <v>3.2</v>
       </c>
-      <c r="C185" s="3">
+      <c r="D185" s="3">
         <v>35538</v>
       </c>
-      <c r="D185" s="3">
+      <c r="E185" s="3">
         <v>2486</v>
       </c>
-      <c r="E185" s="3">
+      <c r="F185" s="3">
         <v>11106</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>15</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C186" s="3">
         <v>2.81</v>
       </c>
-      <c r="C186" s="3">
+      <c r="D186" s="3">
         <v>32257</v>
       </c>
-      <c r="D186" s="3">
+      <c r="E186" s="3">
         <v>2155</v>
       </c>
-      <c r="E186" s="3">
+      <c r="F186" s="3">
         <v>11479</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>15</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187" s="3">
         <v>4</v>
       </c>
-      <c r="C187" s="3">
+      <c r="D187" s="3">
         <v>46858</v>
       </c>
-      <c r="D187" s="3">
+      <c r="E187" s="3">
         <v>3261</v>
       </c>
-      <c r="E187" s="3">
+      <c r="F187" s="3">
         <v>11715</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>15</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C188" s="3">
         <v>3.5</v>
       </c>
-      <c r="C188" s="3">
+      <c r="D188" s="3">
         <v>40154</v>
       </c>
-      <c r="D188" s="3">
+      <c r="E188" s="3">
         <v>2711</v>
       </c>
-      <c r="E188" s="3">
+      <c r="F188" s="3">
         <v>11473</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189" s="3">
         <v>4</v>
       </c>
-      <c r="C189" s="3">
+      <c r="D189" s="3">
         <v>51211</v>
       </c>
-      <c r="D189" s="3">
+      <c r="E189" s="3">
         <v>3530</v>
       </c>
-      <c r="E189" s="3">
+      <c r="F189" s="3">
         <v>12803</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>15</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190" s="3">
         <v>4</v>
       </c>
-      <c r="C190" s="3">
+      <c r="D190" s="3">
         <v>55954</v>
       </c>
-      <c r="D190" s="3">
+      <c r="E190" s="3">
         <v>3726</v>
       </c>
-      <c r="E190" s="3">
+      <c r="F190" s="3">
         <v>13989</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>15</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="3">
         <v>5</v>
       </c>
-      <c r="C191" s="3">
+      <c r="D191" s="3">
         <v>70065</v>
       </c>
-      <c r="D191" s="3">
+      <c r="E191" s="3">
         <v>4351</v>
       </c>
-      <c r="E191" s="3">
+      <c r="F191" s="3">
         <v>14013</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>15</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C192" s="3">
         <v>5</v>
       </c>
-      <c r="C192" s="3">
+      <c r="D192" s="3">
         <v>70248</v>
       </c>
-      <c r="D192" s="3">
+      <c r="E192" s="3">
         <v>4388</v>
       </c>
-      <c r="E192" s="3">
+      <c r="F192" s="3">
         <v>14050</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>15</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C193" s="3">
         <v>5.04</v>
       </c>
-      <c r="C193" s="3">
+      <c r="D193" s="3">
         <v>76026</v>
       </c>
-      <c r="D193" s="3">
+      <c r="E193" s="3">
         <v>5042</v>
       </c>
-      <c r="E193" s="3">
+      <c r="F193" s="3">
         <v>15085</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>15</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" s="3">
         <v>4.01</v>
       </c>
-      <c r="C194" s="3">
+      <c r="D194" s="3">
         <v>55036</v>
       </c>
-      <c r="D194" s="3">
+      <c r="E194" s="3">
         <v>3674</v>
       </c>
-      <c r="E194" s="3">
+      <c r="F194" s="3">
         <v>13725</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>15</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C195" s="3">
         <v>6</v>
       </c>
-      <c r="C195" s="3">
+      <c r="D195" s="3">
         <v>80813</v>
       </c>
-      <c r="D195" s="3">
+      <c r="E195" s="3">
         <v>5375</v>
       </c>
-      <c r="E195" s="3">
+      <c r="F195" s="3">
         <v>13469</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>15</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" s="3">
         <v>5</v>
       </c>
-      <c r="C196" s="3">
+      <c r="D196" s="3">
         <v>71142</v>
       </c>
-      <c r="D196" s="3">
+      <c r="E196" s="3">
         <v>4661</v>
       </c>
-      <c r="E196" s="3">
+      <c r="F196" s="3">
         <v>14228</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>15</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C197" s="3">
         <v>3.5</v>
       </c>
-      <c r="C197" s="3">
+      <c r="D197" s="3">
         <v>48906</v>
       </c>
-      <c r="D197" s="3">
+      <c r="E197" s="3">
         <v>1982</v>
       </c>
-      <c r="E197" s="3">
+      <c r="F197" s="3">
         <v>13973</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>15</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C198" s="3">
         <v>5</v>
       </c>
-      <c r="C198" s="3">
+      <c r="D198" s="3">
         <v>66112</v>
       </c>
-      <c r="D198" s="3">
+      <c r="E198" s="3">
         <v>4859</v>
       </c>
-      <c r="E198" s="3">
+      <c r="F198" s="3">
         <v>13222</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>16</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="6">
+        <v>44593</v>
+      </c>
+      <c r="C199" s="4">
         <v>5.5</v>
       </c>
-      <c r="C199" s="3">
+      <c r="D199" s="3">
         <v>71136</v>
       </c>
-      <c r="D199" s="3">
+      <c r="E199" s="3">
         <v>3988</v>
       </c>
-      <c r="E199" s="3">
+      <c r="F199" s="3">
         <v>12934</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>16</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="6">
+        <v>44621</v>
+      </c>
+      <c r="C200" s="3">
         <v>5</v>
       </c>
-      <c r="C200" s="3">
+      <c r="D200" s="3">
         <v>81644</v>
       </c>
-      <c r="D200" s="3">
+      <c r="E200" s="3">
         <v>4891</v>
       </c>
-      <c r="E200" s="3">
+      <c r="F200" s="3">
         <v>16329</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>16</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="6">
+        <v>44652</v>
+      </c>
+      <c r="C201" s="3">
         <v>2</v>
       </c>
-      <c r="C201" s="3">
+      <c r="D201" s="3">
         <v>33262</v>
       </c>
-      <c r="D201" s="3">
+      <c r="E201" s="3">
         <v>2243</v>
       </c>
-      <c r="E201" s="3">
+      <c r="F201" s="3">
         <v>16631</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>17</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="6">
+        <v>44866</v>
+      </c>
+      <c r="C202" s="4">
         <v>2.52</v>
       </c>
-      <c r="C202" s="4">
+      <c r="D202" s="4">
         <v>35020</v>
       </c>
-      <c r="D202" s="4">
+      <c r="E202" s="4">
         <v>1446</v>
       </c>
-      <c r="E202" s="4">
+      <c r="F202" s="4">
         <v>13897</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>17</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C203" s="4">
         <v>3.14</v>
       </c>
-      <c r="C203" s="4">
+      <c r="D203" s="4">
         <v>45716</v>
       </c>
-      <c r="D203" s="4">
+      <c r="E203" s="4">
         <v>1868</v>
       </c>
-      <c r="E203" s="4">
+      <c r="F203" s="4">
         <v>14559</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>17</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C204" s="4">
         <v>2</v>
       </c>
-      <c r="C204" s="4">
+      <c r="D204" s="4">
         <v>31010</v>
       </c>
-      <c r="D204" s="4">
+      <c r="E204" s="4">
         <v>1230</v>
       </c>
-      <c r="E204" s="4">
+      <c r="F204" s="4">
         <v>15505</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>17</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C205" s="4">
         <v>3.07</v>
       </c>
-      <c r="C205" s="4">
+      <c r="D205" s="4">
         <v>45246</v>
       </c>
-      <c r="D205" s="4">
+      <c r="E205" s="4">
         <v>1788</v>
       </c>
-      <c r="E205" s="4">
+      <c r="F205" s="4">
         <v>14738</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>17</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C206" s="4">
         <v>3</v>
       </c>
-      <c r="C206" s="4">
+      <c r="D206" s="4">
         <v>50095</v>
       </c>
-      <c r="D206" s="4">
+      <c r="E206" s="4">
         <v>2154</v>
       </c>
-      <c r="E206" s="4">
+      <c r="F206" s="4">
         <v>16698</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>17</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C207" s="4">
         <v>3.2</v>
       </c>
-      <c r="C207" s="4">
+      <c r="D207" s="4">
         <v>50861</v>
       </c>
-      <c r="D207" s="4">
+      <c r="E207" s="4">
         <v>2646</v>
       </c>
-      <c r="E207" s="4">
+      <c r="F207" s="4">
         <v>15894</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>18</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C208" s="4">
         <v>3.65</v>
       </c>
-      <c r="C208" s="4">
+      <c r="D208" s="4">
         <v>39410</v>
       </c>
-      <c r="D208" s="4">
+      <c r="E208" s="4">
         <v>1867</v>
       </c>
-      <c r="E208" s="4">
+      <c r="F208" s="4">
         <v>10797</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>18</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C209" s="4">
         <v>6</v>
       </c>
-      <c r="C209" s="4">
+      <c r="D209" s="4">
         <v>76167</v>
       </c>
-      <c r="D209" s="4">
+      <c r="E209" s="4">
         <v>3878</v>
       </c>
-      <c r="E209" s="4">
+      <c r="F209" s="4">
         <v>12695</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>18</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C210" s="4">
         <v>6.45</v>
       </c>
-      <c r="C210" s="4">
+      <c r="D210" s="4">
         <v>87685</v>
       </c>
-      <c r="D210" s="4">
+      <c r="E210" s="4">
         <v>4341</v>
       </c>
-      <c r="E210" s="4">
+      <c r="F210" s="4">
         <v>13595</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>18</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C211" s="4">
         <v>3.29</v>
       </c>
-      <c r="C211" s="4">
+      <c r="D211" s="4">
         <v>40014</v>
       </c>
-      <c r="D211" s="4">
+      <c r="E211" s="4">
         <v>1811</v>
       </c>
-      <c r="E211" s="4">
+      <c r="F211" s="4">
         <v>12162</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>18</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C212" s="4">
         <v>4</v>
       </c>
-      <c r="C212" s="4">
+      <c r="D212" s="4">
         <v>51873</v>
       </c>
-      <c r="D212" s="4">
+      <c r="E212" s="4">
         <v>2322</v>
       </c>
-      <c r="E212" s="4">
+      <c r="F212" s="4">
         <v>12968</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>18</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C213" s="4">
         <v>2.52</v>
       </c>
-      <c r="C213" s="4">
+      <c r="D213" s="4">
         <v>35003</v>
       </c>
-      <c r="D213" s="4">
+      <c r="E213" s="4">
         <v>1604</v>
       </c>
-      <c r="E213" s="4">
+      <c r="F213" s="4">
         <v>13890</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>18</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C214" s="4">
         <v>3</v>
       </c>
-      <c r="C214" s="4">
+      <c r="D214" s="4">
         <v>41725</v>
       </c>
-      <c r="D214" s="4">
+      <c r="E214" s="4">
         <v>1920</v>
       </c>
-      <c r="E214" s="4">
+      <c r="F214" s="4">
         <v>13908</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>18</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C215" s="4">
         <v>3.07</v>
       </c>
-      <c r="C215" s="4">
+      <c r="D215" s="4">
         <v>43307</v>
       </c>
-      <c r="D215" s="4">
+      <c r="E215" s="4">
         <v>2058</v>
       </c>
-      <c r="E215" s="4">
+      <c r="F215" s="4">
         <v>14107</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>18</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C216" s="4">
         <v>5.5</v>
       </c>
-      <c r="C216" s="4">
+      <c r="D216" s="4">
         <v>91272</v>
       </c>
-      <c r="D216" s="4">
+      <c r="E216" s="4">
         <v>3947</v>
       </c>
-      <c r="E216" s="4">
+      <c r="F216" s="4">
         <v>16595</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>18</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="6">
+        <v>44563</v>
+      </c>
+      <c r="C217" s="4">
         <v>3.5</v>
       </c>
-      <c r="C217" s="4">
+      <c r="D217" s="4">
         <v>57001</v>
       </c>
-      <c r="D217" s="4">
+      <c r="E217" s="4">
         <v>2579</v>
       </c>
-      <c r="E217" s="4">
+      <c r="F217" s="4">
         <v>16286</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>18</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="6">
+        <v>44594</v>
+      </c>
+      <c r="C218" s="4">
         <v>2.72</v>
       </c>
-      <c r="C218" s="4">
+      <c r="D218" s="4">
         <v>37395</v>
       </c>
-      <c r="D218" s="4">
+      <c r="E218" s="4">
         <v>1682</v>
       </c>
-      <c r="E218" s="4">
+      <c r="F218" s="4">
         <v>13748</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>18</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="6">
+        <v>44622</v>
+      </c>
+      <c r="C219" s="4">
         <v>7.08</v>
       </c>
-      <c r="C219" s="4">
+      <c r="D219" s="4">
         <v>110279</v>
       </c>
-      <c r="D219" s="4">
+      <c r="E219" s="4">
         <v>5118</v>
       </c>
-      <c r="E219" s="4">
+      <c r="F219" s="4">
         <v>15576</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>18</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="6">
+        <v>44653</v>
+      </c>
+      <c r="C220" s="4">
         <v>6.98</v>
       </c>
-      <c r="C220" s="4">
+      <c r="D220" s="4">
         <v>110548</v>
       </c>
-      <c r="D220" s="4">
+      <c r="E220" s="4">
         <v>4788</v>
       </c>
-      <c r="E220" s="4">
+      <c r="F220" s="4">
         <v>15838</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>18</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="6">
+        <v>44683</v>
+      </c>
+      <c r="C221" s="4">
         <v>7.08</v>
       </c>
-      <c r="C221" s="4">
+      <c r="D221" s="4">
         <v>112143</v>
       </c>
-      <c r="D221" s="4">
+      <c r="E221" s="4">
         <v>5331</v>
       </c>
-      <c r="E221" s="4">
+      <c r="F221" s="4">
         <v>15839</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>18</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="6">
+        <v>44714</v>
+      </c>
+      <c r="C222" s="4">
         <v>7.15</v>
       </c>
-      <c r="C222" s="4">
+      <c r="D222" s="4">
         <v>107026</v>
       </c>
-      <c r="D222" s="4">
+      <c r="E222" s="4">
         <v>4836</v>
       </c>
-      <c r="E222" s="4">
+      <c r="F222" s="4">
         <v>14969</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>18</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="6">
+        <v>44744</v>
+      </c>
+      <c r="C223" s="4">
         <v>7.37</v>
       </c>
-      <c r="C223" s="4">
+      <c r="D223" s="4">
         <v>110144</v>
       </c>
-      <c r="D223" s="4">
+      <c r="E223" s="4">
         <v>4845</v>
       </c>
-      <c r="E223" s="4">
+      <c r="F223" s="4">
         <v>14945</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>18</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="6">
+        <v>44775</v>
+      </c>
+      <c r="C224" s="4">
         <v>7.35</v>
       </c>
-      <c r="C224" s="4">
+      <c r="D224" s="4">
         <v>115384</v>
       </c>
-      <c r="D224" s="4">
+      <c r="E224" s="4">
         <v>4970</v>
       </c>
-      <c r="E224" s="4">
+      <c r="F224" s="4">
         <v>15699</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>18</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="6">
+        <v>44806</v>
+      </c>
+      <c r="C225" s="4">
         <v>7</v>
       </c>
-      <c r="C225" s="4">
+      <c r="D225" s="4">
         <v>107058</v>
       </c>
-      <c r="D225" s="4">
+      <c r="E225" s="4">
         <v>4824</v>
       </c>
-      <c r="E225" s="4">
+      <c r="F225" s="4">
         <v>15294</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>18</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="6">
+        <v>44836</v>
+      </c>
+      <c r="C226" s="4">
         <v>7.78</v>
       </c>
-      <c r="C226" s="4">
+      <c r="D226" s="4">
         <v>120909</v>
       </c>
-      <c r="D226" s="4">
+      <c r="E226" s="4">
         <v>3719</v>
       </c>
-      <c r="E226" s="4">
+      <c r="F226" s="4">
         <v>15541</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>18</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="6">
+        <v>44867</v>
+      </c>
+      <c r="C227" s="4">
         <v>6.8</v>
       </c>
-      <c r="C227" s="4">
+      <c r="D227" s="4">
         <v>105441</v>
       </c>
-      <c r="D227" s="4">
+      <c r="E227" s="4">
         <v>528</v>
       </c>
-      <c r="E227" s="4">
+      <c r="F227" s="4">
         <v>15506</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>19</v>
       </c>
-      <c r="B228" s="4">
-        <v>2.42</v>
+      <c r="B228" s="6">
+        <v>44897</v>
       </c>
       <c r="C228" s="4">
-        <v>35005</v>
+        <v>6.7</v>
       </c>
       <c r="D228" s="4">
-        <v>3128</v>
+        <v>105048</v>
       </c>
       <c r="E228" s="4">
-        <v>14465</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8056</v>
+      </c>
+      <c r="F228" s="4">
+        <v>15679</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>19</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C229" s="4">
+        <v>6</v>
+      </c>
+      <c r="D229" s="4">
+        <v>101242</v>
+      </c>
+      <c r="E229" s="4">
+        <v>6170</v>
+      </c>
+      <c r="F229" s="4">
+        <v>16874</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>184</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C230" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="D230" s="4">
+        <v>35005</v>
+      </c>
+      <c r="E230" s="4">
+        <v>3128</v>
+      </c>
+      <c r="F230" s="4">
+        <v>14465</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>184</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C231" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C229" s="4">
+      <c r="D231" s="4">
         <v>35138</v>
       </c>
-      <c r="D229" s="4">
+      <c r="E231" s="4">
         <v>3226</v>
       </c>
-      <c r="E229" s="4">
+      <c r="F231" s="4">
         <v>15972</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>19</v>
-      </c>
-      <c r="B230" s="4">
+    <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>184</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C232" s="4">
         <v>2.1</v>
       </c>
-      <c r="C230" s="4">
+      <c r="D232" s="4">
         <v>35350</v>
       </c>
-      <c r="D230" s="4">
+      <c r="E232" s="4">
         <v>3606</v>
       </c>
-      <c r="E230" s="4">
+      <c r="F232" s="4">
         <v>16833</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>19</v>
-      </c>
-      <c r="B231" s="4">
+    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>184</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C233" s="4">
         <v>2.67</v>
       </c>
-      <c r="C231" s="4">
+      <c r="D233" s="4">
         <v>35028</v>
       </c>
-      <c r="D231" s="4">
+      <c r="E233" s="4">
         <v>3613</v>
       </c>
-      <c r="E231" s="4">
+      <c r="F233" s="4">
         <v>13119</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>19</v>
-      </c>
-      <c r="B232" s="4">
+    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>184</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C234" s="4">
         <v>2.5</v>
       </c>
-      <c r="C232" s="4">
+      <c r="D234" s="4">
         <v>35015</v>
       </c>
-      <c r="D232" s="4">
+      <c r="E234" s="4">
         <v>3190</v>
       </c>
-      <c r="E232" s="4">
+      <c r="F234" s="4">
         <v>14006</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>20</v>
-      </c>
-      <c r="B233" s="4">
-        <v>2.57</v>
-      </c>
-      <c r="C233" s="4">
-        <v>35092</v>
-      </c>
-      <c r="D233" s="4">
-        <v>1873</v>
-      </c>
-      <c r="E233" s="4">
-        <v>13654</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>20</v>
-      </c>
-      <c r="B234" s="4">
-        <v>3.72</v>
-      </c>
-      <c r="C234" s="4">
-        <v>60067</v>
-      </c>
-      <c r="D234" s="4">
-        <v>2844</v>
-      </c>
-      <c r="E234" s="4">
-        <v>16147</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>20</v>
       </c>
-      <c r="B235" s="4">
-        <v>2.1800000000000002</v>
+      <c r="B235" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C235" s="4">
-        <v>35029</v>
+        <v>2.57</v>
       </c>
       <c r="D235" s="4">
-        <v>1626</v>
+        <v>35092</v>
       </c>
       <c r="E235" s="4">
-        <v>16068</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1873</v>
+      </c>
+      <c r="F235" s="4">
+        <v>13654</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>20</v>
       </c>
-      <c r="B236" s="4">
-        <v>2.15</v>
+      <c r="B236" s="6">
+        <v>44564</v>
       </c>
       <c r="C236" s="4">
-        <v>35021</v>
+        <v>3.72</v>
       </c>
       <c r="D236" s="4">
-        <v>1714</v>
+        <v>60067</v>
       </c>
       <c r="E236" s="4">
-        <v>16289</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2844</v>
+      </c>
+      <c r="F236" s="4">
+        <v>16147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>20</v>
       </c>
-      <c r="B237" s="4">
-        <v>2.27</v>
+      <c r="B237" s="6">
+        <v>44595</v>
       </c>
       <c r="C237" s="4">
-        <v>35020</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D237" s="4">
-        <v>1720</v>
+        <v>35029</v>
       </c>
       <c r="E237" s="4">
-        <v>15427</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1626</v>
+      </c>
+      <c r="F237" s="4">
+        <v>16068</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>20</v>
       </c>
-      <c r="B238" s="4">
-        <v>4.25</v>
+      <c r="B238" s="6">
+        <v>44745</v>
       </c>
       <c r="C238" s="4">
-        <v>70051</v>
+        <v>2.15</v>
       </c>
       <c r="D238" s="4">
-        <v>3509</v>
+        <v>35021</v>
       </c>
       <c r="E238" s="4">
-        <v>16483</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1714</v>
+      </c>
+      <c r="F238" s="4">
+        <v>16289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>20</v>
       </c>
-      <c r="B239" s="4">
-        <v>4.28</v>
+      <c r="B239" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C239" s="4">
-        <v>70022</v>
+        <v>2.27</v>
       </c>
       <c r="D239" s="4">
-        <v>3502</v>
+        <v>35020</v>
       </c>
       <c r="E239" s="4">
-        <v>16360</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1720</v>
+      </c>
+      <c r="F239" s="4">
+        <v>15427</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>20</v>
       </c>
-      <c r="B240" s="4">
-        <v>2</v>
+      <c r="B240" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C240" s="4">
-        <v>35014</v>
+        <v>4.25</v>
       </c>
       <c r="D240" s="4">
-        <v>1581</v>
+        <v>70051</v>
       </c>
       <c r="E240" s="4">
-        <v>17507</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3509</v>
+      </c>
+      <c r="F240" s="4">
+        <v>16483</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>20</v>
       </c>
-      <c r="B241" s="4">
-        <v>2.17</v>
+      <c r="B241" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C241" s="4">
-        <v>35015</v>
+        <v>4.28</v>
       </c>
       <c r="D241" s="4">
-        <v>1459</v>
+        <v>70022</v>
       </c>
       <c r="E241" s="4">
-        <v>16136</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3502</v>
+      </c>
+      <c r="F241" s="4">
+        <v>16360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>20</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C242" s="4">
         <v>2</v>
       </c>
-      <c r="C242" s="4">
-        <v>35010</v>
-      </c>
       <c r="D242" s="4">
-        <v>1207</v>
+        <v>35014</v>
       </c>
       <c r="E242" s="4">
-        <v>17505</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1581</v>
+      </c>
+      <c r="F242" s="4">
+        <v>17507</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>20</v>
       </c>
-      <c r="B243" s="4">
-        <v>2.5</v>
+      <c r="B243" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C243" s="4">
-        <v>43936</v>
+        <v>2.17</v>
       </c>
       <c r="D243" s="4">
-        <v>1613</v>
+        <v>35015</v>
       </c>
       <c r="E243" s="4">
-        <v>17574</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1459</v>
+      </c>
+      <c r="F243" s="4">
+        <v>16136</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>20</v>
       </c>
-      <c r="B244" s="4">
-        <v>3</v>
+      <c r="B244" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C244" s="4">
-        <v>51589</v>
+        <v>2</v>
       </c>
       <c r="D244" s="4">
-        <v>2596</v>
+        <v>35010</v>
       </c>
       <c r="E244" s="4">
-        <v>17196</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1207</v>
+      </c>
+      <c r="F244" s="4">
+        <v>17505</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>20</v>
       </c>
-      <c r="B245" s="4">
-        <v>2</v>
+      <c r="B245" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C245" s="4">
-        <v>37275</v>
+        <v>2.5</v>
       </c>
       <c r="D245" s="4">
-        <v>2047</v>
+        <v>43936</v>
       </c>
       <c r="E245" s="4">
-        <v>18638</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1613</v>
+      </c>
+      <c r="F245" s="4">
+        <v>17574</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>20</v>
       </c>
-      <c r="B246" s="4">
-        <v>3.25</v>
+      <c r="B246" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C246" s="4">
-        <v>60071</v>
+        <v>3</v>
       </c>
       <c r="D246" s="4">
-        <v>2718</v>
+        <v>51589</v>
       </c>
       <c r="E246" s="4">
-        <v>18483</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2596</v>
+      </c>
+      <c r="F246" s="4">
+        <v>17196</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>20</v>
       </c>
-      <c r="B247" s="4">
-        <v>1.91</v>
+      <c r="B247" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C247" s="4">
-        <v>35051</v>
+        <v>2</v>
       </c>
       <c r="D247" s="4">
-        <v>1867</v>
+        <v>37275</v>
       </c>
       <c r="E247" s="4">
-        <v>18351</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2047</v>
+      </c>
+      <c r="F247" s="4">
+        <v>18638</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>20</v>
       </c>
-      <c r="B248" s="4">
-        <v>2</v>
+      <c r="B248" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C248" s="4">
-        <v>35100</v>
+        <v>3.25</v>
       </c>
       <c r="D248" s="4">
-        <v>1730</v>
+        <v>60071</v>
       </c>
       <c r="E248" s="4">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2718</v>
+      </c>
+      <c r="F248" s="4">
+        <v>18483</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>20</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C249" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="D249" s="4">
+        <v>35051</v>
+      </c>
+      <c r="E249" s="4">
+        <v>1867</v>
+      </c>
+      <c r="F249" s="4">
+        <v>18351</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C250" s="4">
+        <v>2</v>
+      </c>
+      <c r="D250" s="4">
+        <v>35100</v>
+      </c>
+      <c r="E250" s="4">
+        <v>1730</v>
+      </c>
+      <c r="F250" s="4">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="6">
+        <v>44565</v>
+      </c>
+      <c r="C251" s="4">
         <v>0.5</v>
       </c>
-      <c r="C249" s="4">
+      <c r="D251" s="4">
         <v>8175</v>
       </c>
-      <c r="D249" s="4">
+      <c r="E251" s="4">
         <v>395</v>
       </c>
-      <c r="E249" s="4">
+      <c r="F251" s="4">
         <v>16350</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>21</v>
-      </c>
-      <c r="B250" s="4">
-        <v>2.67</v>
-      </c>
-      <c r="C250" s="4">
-        <v>35162</v>
-      </c>
-      <c r="D250" s="4">
-        <v>1338</v>
-      </c>
-      <c r="E250" s="4">
-        <v>13169</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>21</v>
-      </c>
-      <c r="B251" s="4">
-        <v>2.17</v>
-      </c>
-      <c r="C251" s="4">
-        <v>35027</v>
-      </c>
-      <c r="D251" s="4">
-        <v>1177</v>
-      </c>
-      <c r="E251" s="4">
-        <v>16141</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>21</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C252" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="D252" s="4">
+        <v>35162</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1338</v>
+      </c>
+      <c r="F252" s="4">
+        <v>13169</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C253" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="D253" s="4">
+        <v>35027</v>
+      </c>
+      <c r="E253" s="4">
+        <v>1177</v>
+      </c>
+      <c r="F253" s="4">
+        <v>16141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C254" s="4">
         <v>2.15</v>
       </c>
-      <c r="C252" s="4">
+      <c r="D254" s="4">
         <v>35011</v>
       </c>
-      <c r="D252" s="4">
+      <c r="E254" s="4">
         <v>1123</v>
       </c>
-      <c r="E252" s="4">
+      <c r="F254" s="4">
         <v>16284</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>22</v>
-      </c>
-      <c r="B253" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="C253" s="4">
-        <v>35062</v>
-      </c>
-      <c r="D253" s="4">
-        <v>1431</v>
-      </c>
-      <c r="E253" s="4">
-        <v>11310</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>22</v>
-      </c>
-      <c r="B254" s="4">
-        <v>2.91</v>
-      </c>
-      <c r="C254" s="4">
-        <v>35344</v>
-      </c>
-      <c r="D254" s="4">
-        <v>1546</v>
-      </c>
-      <c r="E254" s="4">
-        <v>12146</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>22</v>
       </c>
-      <c r="B255" s="4">
-        <v>3</v>
+      <c r="B255" s="6">
+        <v>44565</v>
       </c>
       <c r="C255" s="4">
-        <v>38204</v>
+        <v>3.1</v>
       </c>
       <c r="D255" s="4">
-        <v>1700</v>
+        <v>35062</v>
       </c>
       <c r="E255" s="4">
-        <v>12735</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1431</v>
+      </c>
+      <c r="F255" s="4">
+        <v>11310</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>22</v>
       </c>
-      <c r="B256" s="4">
-        <v>2.68</v>
+      <c r="B256" s="6">
+        <v>44596</v>
       </c>
       <c r="C256" s="4">
-        <v>35016</v>
+        <v>2.91</v>
       </c>
       <c r="D256" s="4">
-        <v>1470</v>
+        <v>35344</v>
       </c>
       <c r="E256" s="4">
-        <v>13066</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1546</v>
+      </c>
+      <c r="F256" s="4">
+        <v>12146</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>22</v>
       </c>
-      <c r="B257" s="4">
-        <v>3.17</v>
+      <c r="B257" s="6">
+        <v>44716</v>
       </c>
       <c r="C257" s="4">
-        <v>47006</v>
+        <v>3</v>
       </c>
       <c r="D257" s="4">
-        <v>1812</v>
+        <v>38204</v>
       </c>
       <c r="E257" s="4">
-        <v>14828</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1700</v>
+      </c>
+      <c r="F257" s="4">
+        <v>12735</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>22</v>
       </c>
-      <c r="B258" s="4">
-        <v>2.2999999999999998</v>
+      <c r="B258" s="6">
+        <v>44746</v>
       </c>
       <c r="C258" s="4">
-        <v>35297</v>
+        <v>2.68</v>
       </c>
       <c r="D258" s="4">
-        <v>1404</v>
+        <v>35016</v>
       </c>
       <c r="E258" s="4">
-        <v>15347</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1470</v>
+      </c>
+      <c r="F258" s="4">
+        <v>13066</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>22</v>
       </c>
-      <c r="B259" s="4">
-        <v>2.1</v>
+      <c r="B259" s="6">
+        <v>44808</v>
       </c>
       <c r="C259" s="4">
-        <v>35007</v>
+        <v>3.17</v>
       </c>
       <c r="D259" s="4">
-        <v>1364</v>
+        <v>47006</v>
       </c>
       <c r="E259" s="4">
-        <v>16670</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1812</v>
+      </c>
+      <c r="F259" s="4">
+        <v>14828</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>22</v>
       </c>
-      <c r="B260" s="4">
-        <v>2.0499999999999998</v>
+      <c r="B260" s="6">
+        <v>44869</v>
       </c>
       <c r="C260" s="4">
-        <v>37531</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D260" s="4">
-        <v>1618</v>
+        <v>35297</v>
       </c>
       <c r="E260" s="4">
-        <v>18308</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1404</v>
+      </c>
+      <c r="F260" s="4">
+        <v>15347</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>22</v>
       </c>
-      <c r="B261" s="4">
-        <v>2.1800000000000002</v>
+      <c r="B261" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C261" s="4">
-        <v>35023</v>
+        <v>2.1</v>
       </c>
       <c r="D261" s="4">
-        <v>1623</v>
+        <v>35007</v>
       </c>
       <c r="E261" s="4">
-        <v>16066</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+      <c r="F261" s="4">
+        <v>16670</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="4">
-        <v>2.1800000000000002</v>
+      <c r="B262" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C262" s="4">
-        <v>35006</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D262" s="4">
-        <v>1693</v>
+        <v>37531</v>
       </c>
       <c r="E262" s="4">
-        <v>16058</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1618</v>
+      </c>
+      <c r="F262" s="4">
+        <v>18308</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>22</v>
       </c>
-      <c r="B263" s="4">
-        <v>2</v>
+      <c r="B263" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C263" s="4">
-        <v>30004</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D263" s="4">
-        <v>1160</v>
+        <v>35023</v>
       </c>
       <c r="E263" s="4">
-        <v>15002</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1623</v>
+      </c>
+      <c r="F263" s="4">
+        <v>16066</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>22</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="6">
+        <v>44656</v>
+      </c>
+      <c r="C264" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D264" s="4">
+        <v>35006</v>
+      </c>
+      <c r="E264" s="4">
+        <v>1693</v>
+      </c>
+      <c r="F264" s="4">
+        <v>16058</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C265" s="4">
+        <v>2</v>
+      </c>
+      <c r="D265" s="4">
+        <v>30004</v>
+      </c>
+      <c r="E265" s="4">
+        <v>1160</v>
+      </c>
+      <c r="F265" s="4">
+        <v>15002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C266" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C264" s="4">
+      <c r="D266" s="4">
         <v>30028</v>
       </c>
-      <c r="D264" s="4">
+      <c r="E266" s="4">
         <v>1295</v>
       </c>
-      <c r="E264" s="4">
+      <c r="F266" s="4">
         <v>14792</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>23</v>
-      </c>
-      <c r="B265" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="C265" s="4">
-        <v>35142</v>
-      </c>
-      <c r="D265" s="4">
-        <v>1593</v>
-      </c>
-      <c r="E265" s="4">
-        <v>10982</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>23</v>
-      </c>
-      <c r="B266" s="4">
-        <v>2.77</v>
-      </c>
-      <c r="C266" s="4">
-        <v>35023</v>
-      </c>
-      <c r="D266" s="4">
-        <v>1623</v>
-      </c>
-      <c r="E266" s="4">
-        <v>12644</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>23</v>
       </c>
-      <c r="B267" s="4">
-        <v>2.5</v>
+      <c r="B267" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C267" s="4">
-        <v>37212</v>
+        <v>3.2</v>
       </c>
       <c r="D267" s="4">
-        <v>1861</v>
+        <v>35142</v>
       </c>
       <c r="E267" s="4">
-        <v>14885</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1593</v>
+      </c>
+      <c r="F267" s="4">
+        <v>10982</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>23</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C268" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="D268" s="4">
+        <v>35023</v>
+      </c>
+      <c r="E268" s="4">
+        <v>1623</v>
+      </c>
+      <c r="F268" s="4">
+        <v>12644</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C269" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D269" s="4">
+        <v>37212</v>
+      </c>
+      <c r="E269" s="4">
+        <v>1861</v>
+      </c>
+      <c r="F269" s="4">
+        <v>14885</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C270" s="4">
         <v>0.5</v>
       </c>
-      <c r="C268" s="4">
+      <c r="D270" s="4">
         <v>6943</v>
       </c>
-      <c r="D268" s="4">
+      <c r="E270" s="4">
         <v>310</v>
       </c>
-      <c r="E268" s="4">
+      <c r="F270" s="4">
         <v>13886</v>
       </c>
     </row>
